--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Área de Trabalho\Projeto Ind\Projeto-Ind-1-sem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFABB324-068A-4259-9416-0395A9736DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B8FC5-4474-4A7F-9629-B41640A1690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207BD8A6-BBF4-4073-920A-0A9C4C460A8F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207BD8A6-BBF4-4073-920A-0A9C4C460A8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Projeto Ind</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t xml:space="preserve">Construir a apresentação do projeto </t>
+  </si>
+  <si>
+    <t>Arq C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicar calculos matematicos </t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,12 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,21 +864,21 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -877,7 +889,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -900,184 +912,192 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
